--- a/database/schema.xlsx
+++ b/database/schema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SESSION_DATA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Column</t>
   </si>
@@ -79,9 +79,6 @@
     <t>START_TIME</t>
   </si>
   <si>
-    <t>// Seconds since 1970-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>DURATION</t>
   </si>
   <si>
@@ -173,6 +170,21 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>//FORMAT: 1970-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>RECORD_TYPE</t>
+  </si>
+  <si>
+    <t>//d = downlink, u = uplink</t>
+  </si>
+  <si>
+    <t>MME_ID</t>
+  </si>
+  <si>
+    <t>PID</t>
   </si>
 </sst>
 </file>
@@ -327,6 +339,12 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,12 +357,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="D20:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,41 +651,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="8"/>
       <c r="G1" t="str">
         <f>CONCATENATE("CREATE ",A1)</f>
         <v>CREATE TABLE</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="10"/>
       <c r="G2" t="str">
         <f>A2</f>
         <v>SESSION_DATA</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="str">
@@ -682,122 +694,137 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE(A6," ",B6,",")</f>
+        <v>RECORD_TYPE TEXT,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="0">CONCATENATE(A5," ",B5,",")</f>
+        <v>TIMESTAMP TEXT,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G21" si="0">CONCATENATE(A5," ",B5,",")</f>
-        <v>TIMESTAMP INTEGER,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="str">
+        <f>CONCATENATE(A7," ",B7,",")</f>
+        <v>TOTAL_BYTES INTEGER,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>TOTAL_BYTES INTEGER,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f>CONCATENATE(A8," ",B8,",")</f>
+        <v>THROUGHPUT INTEGER,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>THROUGHPUT INTEGER,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="str">
+        <f>CONCATENATE(A9," ",B9,",")</f>
+        <v>JITTER INTEGER,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>JITTER INTEGER,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="str">
+        <f>CONCATENATE(A10," ",B10,",")</f>
+        <v>ERRORS INTEGER,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>ERRORS INTEGER,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="str">
+        <f>CONCATENATE(A11," ",B11,",")</f>
+        <v>PACKETS_SENT INTEGER,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>PACKETS_SENT INTEGER,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE(A12," ",B12,",")</f>
+        <v>PACKET_ERROR_RATE INTEGER,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>PACKET_ERROR_RATE INTEGER,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE(A13," ",B13,",")</f>
+        <v>PACKETS_OUT_OF_ORDER INTEGER,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>PACKETS_OUT_OF_ORDER INTEGER,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="str">
-        <f>CONCATENATE(A13," ",B13)</f>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(A14," ",B14)</f>
         <v>SAMPLE_DURATION INTEGER</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>48</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,41 +851,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="8"/>
       <c r="G1" t="str">
         <f>CONCATENATE("CREATE ",A1)</f>
         <v>CREATE TABLE</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="10"/>
       <c r="G2" t="str">
         <f>A2</f>
         <v>SESSIONS</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="str">
@@ -867,22 +894,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G21" si="0">CONCATENATE(A5," ",B5,",")</f>
+        <f t="shared" ref="G5:G11" si="0">CONCATENATE(A5," ",B5,",")</f>
         <v>REMOTE_IP TEXT,</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="str">
@@ -891,10 +918,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="str">
@@ -903,10 +930,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="str">
@@ -915,10 +942,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="str">
@@ -927,10 +954,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
@@ -942,38 +969,50 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>START_TIME TEXT,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>START_TIME INTEGER,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
       <c r="G12" t="str">
         <f>CONCATENATE(A12," ",B12,)</f>
         <v>DURATION INTEGER</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>48</v>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE(A13," ",B13,)</f>
+        <v>PID INTEGER</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,41 +1039,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="8"/>
       <c r="G1" t="str">
         <f>CONCATENATE("CREATE ",A1)</f>
         <v>CREATE TABLE</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="10"/>
       <c r="G2" t="str">
         <f>A2</f>
         <v>DEVICE_STATUS</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="str">
@@ -1043,215 +1082,227 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G21" si="0">CONCATENATE(A5," ",B5,",")</f>
-        <v>TIMESTAMP INTEGER,</v>
+        <v>TIMESTAMP TEXT,</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>APN TEXT,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>APN TEXT,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>BAND TEXT,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>CHANNEL INTEGER,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>IMEI INTEGER,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>IMSI INTEGER,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>BAND TEXT,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>CHANNEL INTEGER,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>IMEI INTEGER,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>IMSI INTEGER,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>MME TEXT,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>MME_ID INTEGER,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>PCI INTEGER,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>MME TEXT,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>PCI INTEGER,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>PLMN TEXT,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>PLMN TEXT,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>RAT TEXT,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>RSRP REAL,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>SINR REAL,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>SVN INTEGER,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>TAC INTEGER,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>RAT TEXT,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>RSRP REAL,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>SINR REAL,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>SVN INTEGER,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>TAC INTEGER,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>WWAN_IP TEXT,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>WWAN_IP TEXT,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>CELL_ID INTEGER,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>CELL_ID INTEGER,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="str">
-        <f>CONCATENATE(A21," ",B21)</f>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="str">
+        <f>CONCATENATE(A22," ",B22)</f>
         <v>ENODEB_ID INTEGER</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
-        <v>48</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/database/schema.xlsx
+++ b/database/schema.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Column</t>
   </si>
@@ -184,7 +184,19 @@
     <t>MME_ID</t>
   </si>
   <si>
-    <t>PID</t>
+    <t>LOCAL_PID</t>
+  </si>
+  <si>
+    <t>REMOTE_PID</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>)</t>
   </si>
 </sst>
 </file>
@@ -838,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G11" si="0">CONCATENATE(A5," ",B5,",")</f>
+        <f t="shared" ref="G5:G15" si="0">CONCATENATE(A5," ",B5,",")</f>
         <v>REMOTE_IP TEXT,</v>
       </c>
     </row>
@@ -994,25 +1006,61 @@
         <v>18</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE(A12," ",B12,)</f>
-        <v>DURATION INTEGER</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>DURATION INTEGER,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE(A13," ",B13,)</f>
-        <v>PID INTEGER</v>
+        <f t="shared" si="0"/>
+        <v>LOCAL_PID INTEGER,</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>47</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>REMOTE_PID INTEGER,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>ENVIRONMENT TEXT,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G14:G16" si="1">CONCATENATE(A16," ",B16,)</f>
+        <v>COMPLETE INTEGER</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
